--- a/results/I3_N5_M2_T15_C100_DepCentral_s1_P6_res.xlsx
+++ b/results/I3_N5_M2_T15_C100_DepCentral_s1_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2377.445140676652</v>
+        <v>839.9596863901647</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006999969482421875</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.95990767142885</v>
+        <v>7.851700276669249</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.695361957914272</v>
+        <v>7.851700276669249</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1969.630000000002</v>
+        <v>514</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>391.1199999999999</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,12 +628,56 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -802,7 +846,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -813,7 +857,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -915,7 +959,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.788310969284332</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -969,7 +1013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,10 +1045,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1015,10 +1059,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1029,10 +1073,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1043,10 +1087,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1057,13 +1101,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1071,13 +1115,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1085,13 +1129,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1099,13 +1143,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1113,99 +1157,15 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>6</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>6</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1308,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>115.6100000000003</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -1319,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>113.5950000000003</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -1330,7 +1290,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>115.2400000000003</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
@@ -1341,7 +1301,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>111.4400000000003</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
@@ -1352,7 +1312,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>113.6550000000003</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
@@ -1363,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>40.77499999999971</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -1374,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>34.87999999999971</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -1385,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>37.77500000000089</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -1396,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>41.0149999999997</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
@@ -1407,7 +1367,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>41.88499999999971</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
@@ -1418,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>121.8299999999988</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18">
@@ -1429,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>117.9799999999988</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
@@ -1440,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>105.775</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
@@ -1451,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>117.2549999999988</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1462,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>119.6049999999988</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -1473,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>182.1100000000008</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
@@ -1484,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>179.2050000000008</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24">
@@ -1495,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>182.6600000000008</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25">
@@ -1506,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>181.4850000000008</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26">
@@ -1517,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>180.2900000000008</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
@@ -1528,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>283.8350000000011</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28">
@@ -1539,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>275.3250000000011</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29">
@@ -1550,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>280.9250000000012</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30">
@@ -1561,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>278.4300000000011</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31">
@@ -1572,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>283.8550000000011</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32">
@@ -1583,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>283.8350000000011</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33">
@@ -1594,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>275.3250000000011</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34">
@@ -1605,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>280.9250000000012</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35">
@@ -1616,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>278.4300000000011</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36">
@@ -1627,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>283.8550000000011</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37">
@@ -1638,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>121.8299999999988</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38">
@@ -1649,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>117.9799999999988</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39">
@@ -1660,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>105.775</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40">
@@ -1671,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>117.2549999999988</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41">
@@ -1682,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>119.6049999999988</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1729,7 +1689,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>183.8350000000011</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -1740,7 +1700,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>175.3250000000011</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -1751,7 +1711,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>180.9250000000012</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
@@ -1762,7 +1722,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>178.4300000000011</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
@@ -1773,7 +1733,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>183.8550000000011</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
@@ -1784,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>21.82999999999883</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1795,7 +1755,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>17.97999999999884</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1806,7 +1766,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.775000000000006</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1817,7 +1777,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>17.25499999999883</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1828,7 +1788,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>19.60499999999884</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1875,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -1886,7 +1846,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.055</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -1897,7 +1857,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>21.615</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -1908,7 +1868,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.815</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -1919,7 +1879,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.824999999999999</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -1930,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1941,7 +1901,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>10.345</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1952,7 +1912,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.875</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1963,7 +1923,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>10.51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1974,7 +1934,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>7.380000000000001</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1985,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1996,7 +1956,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2007,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2018,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2029,7 +1989,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2040,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>9.390000000000001</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -2051,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>10.08</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -2062,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>12.78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -2073,7 +2033,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>10.21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -2084,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>8.93</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -2153,7 +2113,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2180,7 +2140,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2191,7 +2151,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2202,7 +2162,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2213,7 +2173,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2224,10 +2184,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2235,10 +2195,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2246,10 +2206,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2257,10 +2217,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2268,133 +2228,12 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="n">
         <v>1</v>
       </c>
     </row>
